--- a/biology/Médecine/Mastodynie/Mastodynie.xlsx
+++ b/biology/Médecine/Mastodynie/Mastodynie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, les mastodynies sont des douleurs situées à un ou aux deux seins.
 </t>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes peuvent être des élancements, des brûlures, des crampes, des boules douloureuses, une impression de tension mammaire, des sensations douloureuses du mamelon. 
 Parfois, les contacts deviennent douloureux : le poids du drap, le soutien-gorge ou encore le toucher peuvent être désagréables voir insupportables. Les veines superficielles peuvent être particulièrement visibles.
@@ -544,7 +558,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un certain nombre de douleurs ont en réalité leur origine à l'extérieur du sein (liste non limitative) : 
 névralgies intercostales,
@@ -577,7 +593,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mastodynies hormonales sont de loin les causes les plus fréquentes et font partie du syndrome prémenstruel qui est tout à fait banal.
 En effet, à partir de l'ovulation, les seins augmentent de volume. 
@@ -617,7 +635,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement n'est pas toujours nécessaire.
 Les mastodynies qui durent, qui reviennent tous les mois régulièrement nécessitent cependant une thérapeutique à base de progestérone par voie locale ou générale.
